--- a/untranslated/downloads/data-excel/9.4.1.1.xlsx
+++ b/untranslated/downloads/data-excel/9.4.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -708,8 +708,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
@@ -737,8 +738,11 @@
       <c r="I4" s="10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="I5" s="14">
         <v>251.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="14">
+        <v>253.27664777870578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -783,8 +790,9 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -812,8 +820,11 @@
       <c r="I7" s="17">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="17">
+        <v>93.236077839070575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -841,8 +852,11 @@
       <c r="I8" s="17">
         <v>175.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -858,8 +872,9 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -887,8 +902,11 @@
       <c r="I10" s="17">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -916,8 +934,11 @@
       <c r="I11" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="17">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -944,6 +965,9 @@
       </c>
       <c r="I12" s="19">
         <v>25.5</v>
+      </c>
+      <c r="J12" s="19">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/9.4.1.1.xlsx
+++ b/untranslated/downloads/data-excel/9.4.1.1.xlsx
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,6 +375,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +680,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -682,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
@@ -698,7 +707,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -709,8 +718,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
@@ -741,8 +752,14 @@
       <c r="J4" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -773,8 +790,14 @@
       <c r="J5" s="14">
         <v>253.27664777870578</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="27">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="L5" s="27">
+        <v>292.19961890663211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -791,8 +814,10 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -823,8 +848,14 @@
       <c r="J7" s="17">
         <v>93.236077839070575</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="28">
+        <v>98.1</v>
+      </c>
+      <c r="L7" s="28">
+        <v>99.522498012012946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -855,8 +886,14 @@
       <c r="J8" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="28">
+        <v>174.5</v>
+      </c>
+      <c r="L8" s="28">
+        <v>192.67712089461918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -873,8 +910,10 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -905,8 +944,14 @@
       <c r="J10" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="28">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="L10" s="28">
+        <v>88.011952928467494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -937,8 +982,14 @@
       <c r="J11" s="17">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="28">
+        <v>55.5</v>
+      </c>
+      <c r="L11" s="28">
+        <v>56.919430260413804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -968,6 +1019,12 @@
       </c>
       <c r="J12" s="19">
         <v>22.8</v>
+      </c>
+      <c r="K12" s="29">
+        <v>24.9</v>
+      </c>
+      <c r="L12" s="29">
+        <v>24.176373211436804</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/9.4.1.1.xlsx
+++ b/untranslated/downloads/data-excel/9.4.1.1.xlsx
@@ -668,19 +668,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="41.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="40.42578125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -691,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
@@ -707,7 +705,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -720,8 +718,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
@@ -758,8 +757,11 @@
       <c r="L4" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -796,8 +798,11 @@
       <c r="L5" s="27">
         <v>292.19961890663211</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="27">
+        <v>311.65582791395695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -816,8 +821,9 @@
       <c r="J6" s="17"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="L7" s="28">
         <v>99.522498012012946</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="28">
+        <v>119.55977988994496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -892,8 +901,11 @@
       <c r="L8" s="28">
         <v>192.67712089461918</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="28">
+        <v>192.09604802401199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="J9" s="17"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="L10" s="28">
         <v>88.011952928467494</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="28">
+        <v>78.539269634817401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="L11" s="28">
         <v>56.919430260413804</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="28">
+        <v>60.030015007503756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1025,6 +1044,9 @@
       </c>
       <c r="L12" s="29">
         <v>24.176373211436804</v>
+      </c>
+      <c r="M12" s="29">
+        <v>26.013006503251628</v>
       </c>
     </row>
   </sheetData>
